--- a/natmiOut/OldD0/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.154991114260371</v>
+        <v>46.85851166666667</v>
       </c>
       <c r="H2">
-        <v>8.154991114260371</v>
+        <v>140.575535</v>
       </c>
       <c r="I2">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="J2">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>87.84286137994286</v>
+        <v>987.8624116539927</v>
       </c>
       <c r="R2">
-        <v>87.84286137994286</v>
+        <v>8890.761704885936</v>
       </c>
       <c r="S2">
-        <v>0.0008534980684114064</v>
+        <v>0.008111416898417545</v>
       </c>
       <c r="T2">
-        <v>0.0008534980684114064</v>
+        <v>0.008111416898417547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.154991114260371</v>
+        <v>46.85851166666667</v>
       </c>
       <c r="H3">
-        <v>8.154991114260371</v>
+        <v>140.575535</v>
       </c>
       <c r="I3">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="J3">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>2428.887419218398</v>
+        <v>14132.5340849654</v>
       </c>
       <c r="R3">
-        <v>2428.887419218398</v>
+        <v>127192.8067646886</v>
       </c>
       <c r="S3">
-        <v>0.02359953544460709</v>
+        <v>0.116043362356824</v>
       </c>
       <c r="T3">
-        <v>0.02359953544460709</v>
+        <v>0.116043362356824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.154991114260371</v>
+        <v>46.85851166666667</v>
       </c>
       <c r="H4">
-        <v>8.154991114260371</v>
+        <v>140.575535</v>
       </c>
       <c r="I4">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="J4">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>369.5975807395074</v>
+        <v>2161.82913475008</v>
       </c>
       <c r="R4">
-        <v>369.5975807395074</v>
+        <v>19456.46221275072</v>
       </c>
       <c r="S4">
-        <v>0.003591080894852603</v>
+        <v>0.01775095111245627</v>
       </c>
       <c r="T4">
-        <v>0.003591080894852603</v>
+        <v>0.01775095111245628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>282.471973843355</v>
+        <v>283.1772156666667</v>
       </c>
       <c r="H5">
-        <v>282.471973843355</v>
+        <v>849.531647</v>
       </c>
       <c r="I5">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889615</v>
       </c>
       <c r="J5">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>3042.694479292654</v>
+        <v>5969.889295330147</v>
       </c>
       <c r="R5">
-        <v>3042.694479292654</v>
+        <v>53729.00365797133</v>
       </c>
       <c r="S5">
-        <v>0.02956340242162566</v>
+        <v>0.04901923622212279</v>
       </c>
       <c r="T5">
-        <v>0.02956340242162566</v>
+        <v>0.04901923622212279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>282.471973843355</v>
+        <v>283.1772156666667</v>
       </c>
       <c r="H6">
-        <v>282.471973843355</v>
+        <v>849.531647</v>
       </c>
       <c r="I6">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889615</v>
       </c>
       <c r="J6">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889616</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>84131.62122888956</v>
+        <v>85406.29034407939</v>
       </c>
       <c r="R6">
-        <v>84131.62122888956</v>
+        <v>768656.6130967146</v>
       </c>
       <c r="S6">
-        <v>0.8174389481758479</v>
+        <v>0.7012778485702401</v>
       </c>
       <c r="T6">
-        <v>0.8174389481758479</v>
+        <v>0.7012778485702402</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>282.471973843355</v>
+        <v>283.1772156666667</v>
       </c>
       <c r="H7">
-        <v>282.471973843355</v>
+        <v>849.531647</v>
       </c>
       <c r="I7">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889615</v>
       </c>
       <c r="J7">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889616</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>12802.09342921966</v>
+        <v>13064.45154469318</v>
       </c>
       <c r="R7">
-        <v>12802.09342921966</v>
+        <v>117580.0639022386</v>
       </c>
       <c r="S7">
-        <v>0.1243875921368403</v>
+        <v>0.1072732515965987</v>
       </c>
       <c r="T7">
-        <v>0.1243875921368403</v>
+        <v>0.1072732515965987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.164571393110754</v>
+        <v>0.1730073333333333</v>
       </c>
       <c r="H8">
-        <v>0.164571393110754</v>
+        <v>0.519022</v>
       </c>
       <c r="I8">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="J8">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>1.772708500791934</v>
+        <v>3.647308364300222</v>
       </c>
       <c r="R8">
-        <v>1.772708500791934</v>
+        <v>32.825775278702</v>
       </c>
       <c r="S8">
-        <v>1.722397537505375E-05</v>
+        <v>2.994833931416638E-05</v>
       </c>
       <c r="T8">
-        <v>1.722397537505375E-05</v>
+        <v>2.994833931416638E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.164571393110754</v>
+        <v>0.1730073333333333</v>
       </c>
       <c r="H9">
-        <v>0.164571393110754</v>
+        <v>0.519022</v>
       </c>
       <c r="I9">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="J9">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>49.01604191707443</v>
+        <v>52.17903745375688</v>
       </c>
       <c r="R9">
-        <v>49.01604191707443</v>
+        <v>469.611337083812</v>
       </c>
       <c r="S9">
-        <v>0.000476249252815753</v>
+        <v>0.0004284462301151015</v>
       </c>
       <c r="T9">
-        <v>0.000476249252815753</v>
+        <v>0.0004284462301151015</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.164571393110754</v>
+        <v>0.1730073333333333</v>
       </c>
       <c r="H10">
-        <v>0.164571393110754</v>
+        <v>0.519022</v>
       </c>
       <c r="I10">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="J10">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>7.458645619650284</v>
+        <v>7.981736517497557</v>
       </c>
       <c r="R10">
-        <v>7.458645619650284</v>
+        <v>71.83562865747801</v>
       </c>
       <c r="S10">
-        <v>7.246962962422633E-05</v>
+        <v>6.55386739114262E-05</v>
       </c>
       <c r="T10">
-        <v>7.246962962422633E-05</v>
+        <v>6.55386739114262E-05</v>
       </c>
     </row>
   </sheetData>
